--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -46,27 +46,30 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>however</t>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>broke</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>junk</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t>small</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
@@ -91,60 +97,51 @@
     <t>paint</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
+    <t>pay</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
@@ -157,51 +154,51 @@
     <t>2</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>one</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
@@ -226,10 +223,13 @@
     <t>happy</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
     <t>enjoy</t>
-  </si>
-  <si>
-    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
@@ -605,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +613,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
         <v>77</v>
@@ -695,16 +695,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -724,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -742,19 +742,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K4">
-        <v>0.8923076923076924</v>
+        <v>0.875</v>
       </c>
       <c r="L4">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="M4">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -774,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7631578947368421</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K5">
         <v>0.8518518518518519</v>
@@ -824,13 +824,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7323943661971831</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -842,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>0.84375</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="L6">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="M6">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -874,13 +874,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6935483870967742</v>
+        <v>0.71875</v>
       </c>
       <c r="C7">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -892,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="K7">
-        <v>0.7956989247311828</v>
+        <v>0.75</v>
       </c>
       <c r="L7">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="M7">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -924,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6857142857142857</v>
+        <v>0.6612903225806451</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -942,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K8">
-        <v>0.6415094339622641</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -974,13 +974,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.671875</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -992,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9">
-        <v>0.5724533715925395</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="L9">
-        <v>399</v>
+        <v>41</v>
       </c>
       <c r="M9">
-        <v>399</v>
+        <v>41</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>298</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6554054054054054</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C10">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1042,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K10">
-        <v>0.5362318840579711</v>
+        <v>0.5466284074605452</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>381</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>381</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>32</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1074,13 +1074,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6262135922330098</v>
+        <v>0.616504854368932</v>
       </c>
       <c r="C11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1092,31 +1092,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K11">
-        <v>0.4979253112033195</v>
+        <v>0.5020746887966805</v>
       </c>
       <c r="L11">
+        <v>242</v>
+      </c>
+      <c r="M11">
+        <v>242</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>240</v>
-      </c>
-      <c r="M11">
-        <v>240</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1124,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5818181818181818</v>
+        <v>0.6081081081081081</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K12">
-        <v>0.4614754098360656</v>
+        <v>0.4573770491803278</v>
       </c>
       <c r="L12">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="M12">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1174,13 +1174,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="C13">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1192,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K13">
-        <v>0.3516819571865443</v>
+        <v>0.363914373088685</v>
       </c>
       <c r="L13">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M13">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1224,13 +1224,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5625</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1242,10 +1242,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14">
         <v>0.3313253012048193</v>
@@ -1274,13 +1274,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5101449275362319</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C15">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1292,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K15">
         <v>0.3166666666666667</v>
@@ -1324,13 +1324,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4814814814814815</v>
+        <v>0.5101449275362319</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K16">
-        <v>0.3121693121693122</v>
+        <v>0.2804232804232804</v>
       </c>
       <c r="L16">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M16">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1374,13 +1374,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4096385542168675</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C17">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1392,19 +1392,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K17">
-        <v>0.25</v>
+        <v>0.2421875</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1424,13 +1424,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3937007874015748</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1442,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K18">
-        <v>0.1888111888111888</v>
+        <v>0.2027972027972028</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1474,13 +1474,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3809523809523809</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1492,19 +1492,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K19">
-        <v>0.1881720430107527</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1524,13 +1524,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3789473684210526</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="C20">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1542,19 +1542,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K20">
-        <v>0.1726907630522088</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="L20">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>206</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1574,13 +1574,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3707865168539326</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1592,19 +1592,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K21">
-        <v>0.1454864154250657</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="L21">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>975</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1624,13 +1624,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3666666666666666</v>
+        <v>0.3791469194312796</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1642,31 +1642,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K22">
-        <v>0.07754010695187166</v>
+        <v>0.1350877192982456</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>345</v>
+        <v>986</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1674,13 +1674,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.359375</v>
+        <v>0.3671875</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1692,19 +1692,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K23">
-        <v>0.06748864373783257</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="L23">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1437</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1724,49 +1724,49 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3507109004739337</v>
+        <v>0.3578947368421053</v>
       </c>
       <c r="C24">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>34</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>61</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D24">
-        <v>74</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>137</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="K24">
-        <v>0.06406685236768803</v>
+        <v>0.08181818181818182</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>336</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1795,28 +1795,28 @@
         <v>41</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K25">
-        <v>0.04</v>
+        <v>0.07520891364902507</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>720</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1824,13 +1824,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.34375</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C26">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1842,7 +1842,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>84</v>
+        <v>59</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K26">
+        <v>0.036</v>
+      </c>
+      <c r="L26">
+        <v>27</v>
+      </c>
+      <c r="M26">
+        <v>29</v>
+      </c>
+      <c r="N26">
+        <v>0.93</v>
+      </c>
+      <c r="O26">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>723</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1850,13 +1874,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2574257425742574</v>
+        <v>0.2623762376237624</v>
       </c>
       <c r="C27">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D27">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1868,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1876,13 +1900,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2319587628865979</v>
+        <v>0.2346938775510204</v>
       </c>
       <c r="C28">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1894,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>149</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1902,13 +1926,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2244897959183673</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1920,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>76</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1928,13 +1952,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2051282051282051</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1946,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1954,13 +1978,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1847826086956522</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="C31">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1972,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1980,13 +2004,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1772151898734177</v>
+        <v>0.175</v>
       </c>
       <c r="C32">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D32">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1998,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>260</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2006,13 +2030,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.165</v>
+        <v>0.1695402298850575</v>
       </c>
       <c r="C33">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D33">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2024,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>167</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2032,13 +2056,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1571428571428571</v>
+        <v>0.1691394658753709</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="D34">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2050,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>118</v>
+        <v>560</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2058,13 +2082,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1483679525222552</v>
+        <v>0.1677215189873418</v>
       </c>
       <c r="C35">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="D35">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2076,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>574</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2084,13 +2108,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1360759493670886</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="C36">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D36">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2102,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2110,25 +2134,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1350574712643678</v>
+        <v>0.1280353200883002</v>
       </c>
       <c r="C37">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D37">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>301</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2136,13 +2160,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.13215859030837</v>
+        <v>0.1261682242990654</v>
       </c>
       <c r="C38">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D38">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2154,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>394</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2162,13 +2186,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1308411214953271</v>
+        <v>0.1088709677419355</v>
       </c>
       <c r="C39">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2180,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>186</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2188,13 +2212,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1169354838709677</v>
+        <v>0.09737827715355805</v>
       </c>
       <c r="C40">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D40">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2206,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2214,25 +2238,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1123595505617977</v>
+        <v>0.09340659340659341</v>
       </c>
       <c r="C41">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D41">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>237</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2240,25 +2264,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.07413509060955518</v>
+        <v>0.07349665924276169</v>
       </c>
       <c r="C42">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D42">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E42">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>562</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2266,13 +2290,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.07397260273972603</v>
+        <v>0.06760563380281689</v>
       </c>
       <c r="C43">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D43">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2284,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2292,25 +2316,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.07062146892655367</v>
+        <v>0.05766062602965404</v>
       </c>
       <c r="C44">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D44">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E44">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F44">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>329</v>
+        <v>572</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2318,25 +2342,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.0645879732739421</v>
+        <v>0.0430379746835443</v>
       </c>
       <c r="C45">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D45">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>420</v>
+        <v>756</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2344,51 +2368,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.03981623277182236</v>
+        <v>0.03522205206738132</v>
       </c>
       <c r="C46">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D46">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E46">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F46">
-        <v>0.9299999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47">
-        <v>0.03422053231939164</v>
-      </c>
-      <c r="C47">
-        <v>27</v>
-      </c>
-      <c r="D47">
-        <v>32</v>
-      </c>
-      <c r="E47">
-        <v>0.16</v>
-      </c>
-      <c r="F47">
-        <v>0.84</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>762</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
